--- a/MUV Kit/Hardware/BOM_sensors_kit.xlsx
+++ b/MUV Kit/Hardware/BOM_sensors_kit.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/emma/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/emma/Repo/air_quality_sensor_kit/MUV Kit/Hardware/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="181" uniqueCount="127">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="181" uniqueCount="128">
   <si>
     <t>Name</t>
   </si>
@@ -279,9 +279,6 @@
     <t>SW_RST, SW_CONFIG</t>
   </si>
   <si>
-    <t>https://nl.farnell.com/omron-electronic-components/b3sn-3112p/switch-6x6x3-1mm-sealed-1-57n/dp/2076274?st=B3SN-3112P</t>
-  </si>
-  <si>
     <t>R1</t>
   </si>
   <si>
@@ -409,6 +406,12 @@
   </si>
   <si>
     <t>The cost of the gas sensors are estimations, you have to contact the company for the exact cost.</t>
+  </si>
+  <si>
+    <t>https://nl.farnell.com/omron-electronic-components/b3sn-3112p/switch-6x6x3-1mm-sealed-1-57n/dp/2076274?ost=2076274&amp;ddkey=https%3Anl-NL%2FElement14_Netherlands%2Fsearch</t>
+  </si>
+  <si>
+    <t>Tactile Switch, B3SN Series, Top Actuated, SMD, Round Button, 160 gf, 50mA at 24VDC</t>
   </si>
 </sst>
 </file>
@@ -488,9 +491,10 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="13">
@@ -518,8 +522,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="3">
+  <cellStyles count="4">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="3" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
@@ -798,8 +803,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K57"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+    <sheetView tabSelected="1" topLeftCell="A20" workbookViewId="0">
+      <selection activeCell="C31" sqref="C31:K31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -818,17 +823,17 @@
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.2">
       <c r="C1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.2">
       <c r="C2" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B3">
         <f>SUM(I7:I42)</f>
@@ -837,7 +842,7 @@
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B4">
         <f>SUM(J7:J43)</f>
@@ -1196,7 +1201,7 @@
         <v>52</v>
       </c>
       <c r="F16" s="12" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="G16" s="12"/>
       <c r="H16" s="12"/>
@@ -1294,7 +1299,7 @@
         <v>12</v>
       </c>
       <c r="J21">
-        <f>G21*D21</f>
+        <f t="shared" ref="J21:J26" si="4">G21*D21</f>
         <v>1.2</v>
       </c>
       <c r="K21" s="9" t="s">
@@ -1328,7 +1333,7 @@
         <v>7.13</v>
       </c>
       <c r="J22">
-        <f>G22*D22</f>
+        <f t="shared" si="4"/>
         <v>0.71299999999999997</v>
       </c>
       <c r="K22" s="9" t="s">
@@ -1359,11 +1364,11 @@
         <v>10</v>
       </c>
       <c r="I23">
-        <f t="shared" ref="I23" si="4">H23*G23</f>
+        <f t="shared" ref="I23" si="5">H23*G23</f>
         <v>1.5</v>
       </c>
       <c r="J23">
-        <f>G23*D23</f>
+        <f t="shared" si="4"/>
         <v>0.6</v>
       </c>
       <c r="K23" t="s">
@@ -1393,11 +1398,11 @@
         <v>100</v>
       </c>
       <c r="I24">
-        <f t="shared" ref="I24:I26" si="5">H24*G24</f>
+        <f t="shared" ref="I24:I26" si="6">H24*G24</f>
         <v>14.7</v>
       </c>
       <c r="J24">
-        <f>G24*D24</f>
+        <f t="shared" si="4"/>
         <v>0.14699999999999999</v>
       </c>
       <c r="K24" t="s">
@@ -1427,11 +1432,11 @@
         <v>5</v>
       </c>
       <c r="I25">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>1.7999999999999998</v>
       </c>
       <c r="J25">
-        <f>G25*D25</f>
+        <f t="shared" si="4"/>
         <v>0.72</v>
       </c>
       <c r="K25" t="s">
@@ -1461,11 +1466,11 @@
         <v>10</v>
       </c>
       <c r="I26">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0.61</v>
       </c>
       <c r="J26">
-        <f>G26*D26</f>
+        <f t="shared" si="4"/>
         <v>0.24399999999999999</v>
       </c>
       <c r="K26" t="s">
@@ -1504,11 +1509,11 @@
         <v>10</v>
       </c>
       <c r="I29">
-        <f t="shared" ref="I29:I30" si="6">H29*G29</f>
+        <f t="shared" ref="I29:I30" si="7">H29*G29</f>
         <v>7.13</v>
       </c>
       <c r="J29">
-        <f>G29*D29</f>
+        <f t="shared" ref="J29:J34" si="8">G29*D29</f>
         <v>0.71299999999999997</v>
       </c>
       <c r="K29" s="9" t="s">
@@ -1538,11 +1543,11 @@
         <v>10</v>
       </c>
       <c r="I30">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>12</v>
       </c>
       <c r="J30">
-        <f>G30*D30</f>
+        <f t="shared" si="8"/>
         <v>1.2</v>
       </c>
       <c r="K30" s="9" t="s">
@@ -1554,7 +1559,7 @@
         <v>82</v>
       </c>
       <c r="C31" t="s">
-        <v>83</v>
+        <v>127</v>
       </c>
       <c r="D31">
         <v>2</v>
@@ -1572,22 +1577,22 @@
         <v>5</v>
       </c>
       <c r="I31">
-        <f t="shared" ref="I31:I35" si="7">H31*G31</f>
+        <f t="shared" ref="I31:I35" si="9">H31*G31</f>
         <v>3.605</v>
       </c>
       <c r="J31">
-        <f>G31*D31</f>
+        <f t="shared" si="8"/>
         <v>1.4419999999999999</v>
       </c>
-      <c r="K31" t="s">
-        <v>83</v>
+      <c r="K31" s="9" t="s">
+        <v>126</v>
       </c>
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B32" t="s">
-        <v>84</v>
-      </c>
-      <c r="C32" s="8" t="s">
+        <v>83</v>
+      </c>
+      <c r="C32" t="s">
         <v>79</v>
       </c>
       <c r="D32">
@@ -1606,11 +1611,11 @@
         <v>10</v>
       </c>
       <c r="I32">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>0.61</v>
       </c>
       <c r="J32">
-        <f>G32*D32</f>
+        <f t="shared" si="8"/>
         <v>0.24399999999999999</v>
       </c>
       <c r="K32" t="s">
@@ -1619,10 +1624,10 @@
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B33" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C33" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D33">
         <v>1</v>
@@ -1640,23 +1645,23 @@
         <v>10</v>
       </c>
       <c r="I33">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>0.69900000000000007</v>
       </c>
       <c r="J33">
-        <f>G33*D33</f>
+        <f t="shared" si="8"/>
         <v>6.9900000000000004E-2</v>
       </c>
       <c r="K33" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B34" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C34" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D34">
         <v>1</v>
@@ -1674,29 +1679,29 @@
         <v>5</v>
       </c>
       <c r="I34">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>1.4949999999999999</v>
       </c>
       <c r="J34">
-        <f>G34*D34</f>
+        <f t="shared" si="8"/>
         <v>0.29899999999999999</v>
       </c>
       <c r="K34" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B35" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C35" t="s">
+        <v>109</v>
+      </c>
+      <c r="D35">
+        <v>1</v>
+      </c>
+      <c r="E35" t="s">
         <v>110</v>
-      </c>
-      <c r="D35">
-        <v>1</v>
-      </c>
-      <c r="E35" t="s">
-        <v>111</v>
       </c>
       <c r="F35" s="6">
         <v>10707</v>
@@ -1709,29 +1714,29 @@
         <v>10</v>
       </c>
       <c r="I35">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>1.9500000000000002</v>
       </c>
       <c r="J35">
-        <f t="shared" ref="J35" si="8">G35*D35</f>
+        <f t="shared" ref="J35" si="10">G35*D35</f>
         <v>0.19500000000000001</v>
       </c>
       <c r="K35" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="37" spans="1:11" ht="25" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C37" s="5"/>
     </row>
     <row r="38" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B38" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C38" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D38">
         <v>1</v>
@@ -1749,20 +1754,20 @@
         <v>10</v>
       </c>
       <c r="I38">
-        <f t="shared" ref="I38:I39" si="9">H38*G38</f>
+        <f t="shared" ref="I38:I39" si="11">H38*G38</f>
         <v>7.8500000000000005</v>
       </c>
       <c r="J38">
-        <f t="shared" ref="J38" si="10">G38*D38</f>
+        <f t="shared" ref="J38" si="12">G38*D38</f>
         <v>0.78500000000000003</v>
       </c>
       <c r="K38" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="39" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B39" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C39" s="8" t="s">
         <v>71</v>
@@ -1784,7 +1789,7 @@
         <v>10</v>
       </c>
       <c r="I39">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>1.5</v>
       </c>
       <c r="J39">
@@ -1801,13 +1806,13 @@
     </row>
     <row r="41" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="F41" s="6"/>
     </row>
     <row r="42" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B42" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C42" s="8" t="s">
         <v>71</v>
@@ -1832,7 +1837,7 @@
         <v>1.5</v>
       </c>
       <c r="J42">
-        <f t="shared" ref="J42" si="11">G42*D42</f>
+        <f t="shared" ref="J42" si="13">G42*D42</f>
         <v>0.3</v>
       </c>
       <c r="K42" s="10" t="s">
@@ -1844,7 +1849,7 @@
         <v>65</v>
       </c>
       <c r="C43" s="8" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D43">
         <v>2</v>
@@ -1866,19 +1871,19 @@
         <v>1.105</v>
       </c>
       <c r="J43">
-        <f t="shared" ref="J43" si="12">G43*D43</f>
+        <f t="shared" ref="J43" si="14">G43*D43</f>
         <v>0.442</v>
       </c>
       <c r="K43" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="44" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B44" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C44" s="8" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D44">
         <v>2</v>
@@ -1900,19 +1905,19 @@
         <v>0.84699999999999998</v>
       </c>
       <c r="J44">
-        <f t="shared" ref="J44" si="13">G44*D44</f>
+        <f t="shared" ref="J44" si="15">G44*D44</f>
         <v>0.1694</v>
       </c>
       <c r="K44" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="45" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B45" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C45" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D45">
         <v>2</v>
@@ -1930,7 +1935,7 @@
         <v>5</v>
       </c>
       <c r="I45">
-        <f t="shared" ref="I45:I46" si="14">H45*G45</f>
+        <f t="shared" ref="I45:I46" si="16">H45*G45</f>
         <v>1.4949999999999999</v>
       </c>
       <c r="J45">
@@ -1938,15 +1943,15 @@
         <v>0.59799999999999998</v>
       </c>
       <c r="K45" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="46" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B46" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C46" s="8" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D46">
         <v>2</v>
@@ -1964,7 +1969,7 @@
         <v>5</v>
       </c>
       <c r="I46">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>3.4899999999999998</v>
       </c>
       <c r="J46">
@@ -1972,18 +1977,18 @@
         <v>1.3959999999999999</v>
       </c>
       <c r="K46" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="48" spans="1:11" ht="25" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C48" s="5"/>
     </row>
     <row r="49" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B49" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C49" s="8" t="s">
         <v>71</v>
@@ -2005,7 +2010,7 @@
         <v>10</v>
       </c>
       <c r="I49">
-        <f t="shared" ref="I49:I51" si="15">H49*G49</f>
+        <f t="shared" ref="I49:I51" si="17">H49*G49</f>
         <v>1.5</v>
       </c>
       <c r="J49">
@@ -2018,7 +2023,7 @@
     </row>
     <row r="50" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B50" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C50" t="s">
         <v>63</v>
@@ -2039,7 +2044,7 @@
         <v>10</v>
       </c>
       <c r="I50">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>7.13</v>
       </c>
       <c r="J50">
@@ -2052,7 +2057,7 @@
     </row>
     <row r="51" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B51" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C51" t="s">
         <v>60</v>
@@ -2073,7 +2078,7 @@
         <v>10</v>
       </c>
       <c r="I51">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>12</v>
       </c>
       <c r="J51">
@@ -2089,15 +2094,15 @@
     </row>
     <row r="53" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="54" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B54" t="s">
+        <v>117</v>
+      </c>
+      <c r="C54" t="s">
         <v>118</v>
-      </c>
-      <c r="C54" t="s">
-        <v>119</v>
       </c>
       <c r="D54">
         <v>1</v>
@@ -2106,7 +2111,7 @@
         <v>12</v>
       </c>
       <c r="F54" s="6" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="G54">
         <v>1.5</v>
@@ -2115,23 +2120,23 @@
         <v>1</v>
       </c>
       <c r="I54">
-        <f t="shared" ref="I52:I54" si="16">H54*G54</f>
+        <f t="shared" ref="I54" si="18">H54*G54</f>
         <v>1.5</v>
       </c>
       <c r="J54">
-        <f t="shared" ref="J52:J54" si="17">G54*D54</f>
+        <f t="shared" ref="J54" si="19">G54*D54</f>
         <v>1.5</v>
       </c>
       <c r="K54" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="55" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B55" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C55" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D55">
         <v>4</v>
@@ -2140,7 +2145,7 @@
         <v>34</v>
       </c>
       <c r="F55" s="6" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="G55">
         <f>3.5/H55</f>
@@ -2150,15 +2155,15 @@
         <v>5</v>
       </c>
       <c r="I55">
-        <f t="shared" ref="I55" si="18">H55*G55</f>
+        <f t="shared" ref="I55" si="20">H55*G55</f>
         <v>3.5</v>
       </c>
       <c r="J55">
-        <f t="shared" ref="J55" si="19">G55*D55</f>
+        <f t="shared" ref="J55" si="21">G55*D55</f>
         <v>2.8</v>
       </c>
       <c r="K55" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="56" spans="1:11" x14ac:dyDescent="0.2">
@@ -2172,5 +2177,6 @@
     <mergeCell ref="F16:H18"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>
--- a/MUV Kit/Hardware/BOM_sensors_kit.xlsx
+++ b/MUV Kit/Hardware/BOM_sensors_kit.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="200" yWindow="2620" windowWidth="28600" windowHeight="13840" tabRatio="500"/>
+    <workbookView xWindow="1860" yWindow="460" windowWidth="28720" windowHeight="15900" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="181" uniqueCount="128">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="197" uniqueCount="142">
   <si>
     <t>Name</t>
   </si>
@@ -412,13 +412,55 @@
   </si>
   <si>
     <t>Tactile Switch, B3SN Series, Top Actuated, SMD, Round Button, 160 gf, 50mA at 24VDC</t>
+  </si>
+  <si>
+    <t>sdcard</t>
+  </si>
+  <si>
+    <t>battery for rtc</t>
+  </si>
+  <si>
+    <t>open circuit</t>
+  </si>
+  <si>
+    <t>https://opencircuit.nl/Product/11234/8GB-Micro-SD-geheugenkaart</t>
+  </si>
+  <si>
+    <t>8GB Micro SD card</t>
+  </si>
+  <si>
+    <t>USB power cable</t>
+  </si>
+  <si>
+    <t>Micro USB kabel - 1.8m</t>
+  </si>
+  <si>
+    <t>USB adapter</t>
+  </si>
+  <si>
+    <t>Goobay 59232 Dual USB Voeding - 5V 2.4A</t>
+  </si>
+  <si>
+    <t>https://www.tinytronics.nl/shop/nl/voedingen/5v/goobay-59232-dual-usb-voeding-5v-2.4a-zwart?search=USB%20Voeding</t>
+  </si>
+  <si>
+    <t>https://www.tinytronics.nl/shop/nl/kabels/usb/micro-usb-kabel-1.8m?search=usb</t>
+  </si>
+  <si>
+    <t>CR1220 3V lithium metal coin cell battery</t>
+  </si>
+  <si>
+    <t>allekables</t>
+  </si>
+  <si>
+    <t>https://www.allekabels.nl/knoopcel-batterij/1067/1296899/knoopcel-batterij.html?gclid=Cj0KCQiAnY_jBRDdARIsAIEqpJ2rkIKRUuv-_eBs5IBFhdc-4L-u2Y0OKBGr-Ovh1yVKXDImQ0JHVIcaAuZCEALw_wcB</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -473,6 +515,11 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -497,7 +544,7 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -520,6 +567,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -801,10 +855,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K57"/>
+  <dimension ref="A1:L59"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A20" workbookViewId="0">
-      <selection activeCell="C31" sqref="C31:K31"/>
+    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
+      <selection activeCell="C62" sqref="C62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -814,7 +868,7 @@
     <col min="3" max="3" width="107.33203125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="7.83203125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="13.83203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.83203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.83203125" style="14" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="9.6640625" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="20.5" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="10.6640625" bestFit="1" customWidth="1"/>
@@ -862,7 +916,7 @@
       <c r="E6" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="F6" s="1" t="s">
+      <c r="F6" s="15" t="s">
         <v>4</v>
       </c>
       <c r="G6" s="1" t="s">
@@ -911,7 +965,7 @@
         <f>G7*D7</f>
         <v>19.95</v>
       </c>
-      <c r="K7" t="s">
+      <c r="K7" s="9" t="s">
         <v>14</v>
       </c>
     </row>
@@ -1130,7 +1184,7 @@
         <v>2</v>
       </c>
       <c r="E14" t="s">
-        <v>44</v>
+        <v>61</v>
       </c>
       <c r="F14" s="3">
         <v>7991924</v>
@@ -1149,7 +1203,7 @@
         <f t="shared" si="0"/>
         <v>0.98199999999999998</v>
       </c>
-      <c r="K14" t="s">
+      <c r="K14" s="9" t="s">
         <v>41</v>
       </c>
     </row>
@@ -1285,7 +1339,7 @@
       <c r="E21" t="s">
         <v>61</v>
       </c>
-      <c r="F21" s="6">
+      <c r="F21" s="3">
         <v>2827905</v>
       </c>
       <c r="G21">
@@ -1319,7 +1373,7 @@
       <c r="E22" t="s">
         <v>61</v>
       </c>
-      <c r="F22" s="6">
+      <c r="F22" s="3">
         <v>2827901</v>
       </c>
       <c r="G22">
@@ -1353,7 +1407,7 @@
       <c r="E23" t="s">
         <v>34</v>
       </c>
-      <c r="F23" s="6" t="s">
+      <c r="F23" s="3" t="s">
         <v>70</v>
       </c>
       <c r="G23">
@@ -1388,7 +1442,7 @@
       <c r="E24" t="s">
         <v>44</v>
       </c>
-      <c r="F24" s="6">
+      <c r="F24" s="3">
         <v>1516281</v>
       </c>
       <c r="G24">
@@ -1422,7 +1476,7 @@
       <c r="E25" t="s">
         <v>44</v>
       </c>
-      <c r="F25" s="6">
+      <c r="F25" s="3">
         <v>9845429</v>
       </c>
       <c r="G25">
@@ -1456,7 +1510,7 @@
       <c r="E26" t="s">
         <v>44</v>
       </c>
-      <c r="F26" s="6">
+      <c r="F26" s="3">
         <v>9240640</v>
       </c>
       <c r="G26">
@@ -1499,7 +1553,7 @@
       <c r="E29" t="s">
         <v>61</v>
       </c>
-      <c r="F29" s="6">
+      <c r="F29" s="3">
         <v>2827901</v>
       </c>
       <c r="G29">
@@ -1533,7 +1587,7 @@
       <c r="E30" t="s">
         <v>61</v>
       </c>
-      <c r="F30" s="6">
+      <c r="F30" s="3">
         <v>2827905</v>
       </c>
       <c r="G30">
@@ -1567,7 +1621,7 @@
       <c r="E31" t="s">
         <v>61</v>
       </c>
-      <c r="F31" s="6">
+      <c r="F31" s="3">
         <v>2076274</v>
       </c>
       <c r="G31">
@@ -1601,7 +1655,7 @@
       <c r="E32" t="s">
         <v>44</v>
       </c>
-      <c r="F32" s="6">
+      <c r="F32" s="3">
         <v>9240640</v>
       </c>
       <c r="G32">
@@ -1635,7 +1689,7 @@
       <c r="E33" t="s">
         <v>44</v>
       </c>
-      <c r="F33" s="6">
+      <c r="F33" s="3">
         <v>9240926</v>
       </c>
       <c r="G33">
@@ -1669,7 +1723,7 @@
       <c r="E34" t="s">
         <v>44</v>
       </c>
-      <c r="F34" s="6">
+      <c r="F34" s="3">
         <v>2429364</v>
       </c>
       <c r="G34">
@@ -1703,7 +1757,7 @@
       <c r="E35" t="s">
         <v>110</v>
       </c>
-      <c r="F35" s="6">
+      <c r="F35" s="3">
         <v>10707</v>
       </c>
       <c r="G35">
@@ -1744,7 +1798,7 @@
       <c r="E38" t="s">
         <v>44</v>
       </c>
-      <c r="F38" s="6">
+      <c r="F38" s="3">
         <v>1109731</v>
       </c>
       <c r="G38">
@@ -1778,7 +1832,7 @@
       <c r="E39" t="s">
         <v>34</v>
       </c>
-      <c r="F39" s="6" t="s">
+      <c r="F39" s="3" t="s">
         <v>70</v>
       </c>
       <c r="G39">
@@ -1802,13 +1856,13 @@
     </row>
     <row r="40" spans="1:11" ht="25" x14ac:dyDescent="0.25">
       <c r="C40" s="5"/>
-      <c r="F40" s="6"/>
+      <c r="F40" s="3"/>
     </row>
     <row r="41" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>93</v>
       </c>
-      <c r="F41" s="6"/>
+      <c r="F41" s="3"/>
     </row>
     <row r="42" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B42" t="s">
@@ -1823,7 +1877,7 @@
       <c r="E42" s="10" t="s">
         <v>34</v>
       </c>
-      <c r="F42" s="6" t="s">
+      <c r="F42" s="3" t="s">
         <v>70</v>
       </c>
       <c r="G42">
@@ -1857,7 +1911,7 @@
       <c r="E43" t="s">
         <v>44</v>
       </c>
-      <c r="F43" s="6">
+      <c r="F43" s="3">
         <v>1593464</v>
       </c>
       <c r="G43">
@@ -1891,7 +1945,7 @@
       <c r="E44" t="s">
         <v>44</v>
       </c>
-      <c r="F44" s="6">
+      <c r="F44" s="3">
         <v>1692540</v>
       </c>
       <c r="G44">
@@ -1925,7 +1979,7 @@
       <c r="E45" t="s">
         <v>44</v>
       </c>
-      <c r="F45" s="6">
+      <c r="F45" s="3">
         <v>2429364</v>
       </c>
       <c r="G45">
@@ -1959,7 +2013,7 @@
       <c r="E46" t="s">
         <v>44</v>
       </c>
-      <c r="F46" s="6">
+      <c r="F46" s="3">
         <v>1740706</v>
       </c>
       <c r="G46">
@@ -1986,7 +2040,7 @@
       </c>
       <c r="C48" s="5"/>
     </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B49" t="s">
         <v>92</v>
       </c>
@@ -1999,7 +2053,7 @@
       <c r="E49" t="s">
         <v>34</v>
       </c>
-      <c r="F49" s="6" t="s">
+      <c r="F49" s="3" t="s">
         <v>70</v>
       </c>
       <c r="G49">
@@ -2021,7 +2075,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B50" t="s">
         <v>100</v>
       </c>
@@ -2034,7 +2088,7 @@
       <c r="E50" t="s">
         <v>61</v>
       </c>
-      <c r="F50" s="6">
+      <c r="F50" s="3">
         <v>2827901</v>
       </c>
       <c r="G50">
@@ -2055,7 +2109,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B51" t="s">
         <v>101</v>
       </c>
@@ -2068,7 +2122,7 @@
       <c r="E51" t="s">
         <v>61</v>
       </c>
-      <c r="F51" s="6">
+      <c r="F51" s="3">
         <v>2827905</v>
       </c>
       <c r="G51">
@@ -2089,15 +2143,15 @@
         <v>62</v>
       </c>
     </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="F52" s="6"/>
-    </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="F52" s="3"/>
+    </row>
+    <row r="53" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B54" t="s">
         <v>117</v>
       </c>
@@ -2110,7 +2164,7 @@
       <c r="E54" t="s">
         <v>12</v>
       </c>
-      <c r="F54" s="6" t="s">
+      <c r="F54" s="3" t="s">
         <v>120</v>
       </c>
       <c r="G54">
@@ -2131,7 +2185,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B55" t="s">
         <v>122</v>
       </c>
@@ -2144,7 +2198,7 @@
       <c r="E55" t="s">
         <v>34</v>
       </c>
-      <c r="F55" s="6" t="s">
+      <c r="F55" s="3" t="s">
         <v>123</v>
       </c>
       <c r="G55">
@@ -2155,27 +2209,164 @@
         <v>5</v>
       </c>
       <c r="I55">
-        <f t="shared" ref="I55" si="20">H55*G55</f>
+        <f t="shared" ref="I55:I56" si="20">H55*G55</f>
         <v>3.5</v>
       </c>
       <c r="J55">
-        <f t="shared" ref="J55" si="21">G55*D55</f>
+        <f t="shared" ref="J55:J56" si="21">G55*D55</f>
         <v>2.8</v>
       </c>
       <c r="K55" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="F56" s="6"/>
-    </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="F57" s="6"/>
+    <row r="56" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="B56" t="s">
+        <v>128</v>
+      </c>
+      <c r="C56" t="s">
+        <v>132</v>
+      </c>
+      <c r="D56" s="13">
+        <v>1</v>
+      </c>
+      <c r="E56" s="13" t="s">
+        <v>130</v>
+      </c>
+      <c r="F56" s="3">
+        <v>11234</v>
+      </c>
+      <c r="G56" s="13">
+        <v>6</v>
+      </c>
+      <c r="H56" s="13">
+        <v>1</v>
+      </c>
+      <c r="I56">
+        <f t="shared" si="20"/>
+        <v>6</v>
+      </c>
+      <c r="J56">
+        <f t="shared" si="21"/>
+        <v>6</v>
+      </c>
+      <c r="K56" s="9" t="s">
+        <v>131</v>
+      </c>
+      <c r="L56" s="13"/>
+    </row>
+    <row r="57" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="B57" t="s">
+        <v>133</v>
+      </c>
+      <c r="C57" s="10" t="s">
+        <v>134</v>
+      </c>
+      <c r="D57">
+        <v>1</v>
+      </c>
+      <c r="E57" t="s">
+        <v>25</v>
+      </c>
+      <c r="F57" s="3">
+        <v>924</v>
+      </c>
+      <c r="G57">
+        <v>2.5</v>
+      </c>
+      <c r="H57">
+        <v>1</v>
+      </c>
+      <c r="I57">
+        <f t="shared" ref="I57:I59" si="22">H57*G57</f>
+        <v>2.5</v>
+      </c>
+      <c r="J57">
+        <f t="shared" ref="J57:J59" si="23">G57*D57</f>
+        <v>2.5</v>
+      </c>
+      <c r="K57" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="58" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="B58" t="s">
+        <v>135</v>
+      </c>
+      <c r="C58" s="10" t="s">
+        <v>136</v>
+      </c>
+      <c r="D58">
+        <v>1</v>
+      </c>
+      <c r="E58" t="s">
+        <v>25</v>
+      </c>
+      <c r="F58" s="3">
+        <v>1750</v>
+      </c>
+      <c r="G58">
+        <v>7.5</v>
+      </c>
+      <c r="H58">
+        <v>1</v>
+      </c>
+      <c r="I58">
+        <f t="shared" si="22"/>
+        <v>7.5</v>
+      </c>
+      <c r="J58">
+        <f t="shared" si="23"/>
+        <v>7.5</v>
+      </c>
+      <c r="K58" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="59" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="B59" t="s">
+        <v>129</v>
+      </c>
+      <c r="C59" s="10" t="s">
+        <v>139</v>
+      </c>
+      <c r="D59">
+        <v>1</v>
+      </c>
+      <c r="E59" t="s">
+        <v>140</v>
+      </c>
+      <c r="F59" s="3">
+        <v>1296899</v>
+      </c>
+      <c r="G59">
+        <f>1.9/5</f>
+        <v>0.38</v>
+      </c>
+      <c r="H59">
+        <v>5</v>
+      </c>
+      <c r="I59">
+        <f t="shared" si="22"/>
+        <v>1.9</v>
+      </c>
+      <c r="J59">
+        <f t="shared" si="23"/>
+        <v>0.38</v>
+      </c>
+      <c r="K59" t="s">
+        <v>141</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="F16:H18"/>
   </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="K7" r:id="rId1"/>
+    <hyperlink ref="K14" r:id="rId2"/>
+    <hyperlink ref="K56" r:id="rId3"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>

--- a/MUV Kit/Hardware/BOM_sensors_kit.xlsx
+++ b/MUV Kit/Hardware/BOM_sensors_kit.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="1860" yWindow="460" windowWidth="28720" windowHeight="15900" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16240" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="197" uniqueCount="142">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="201" uniqueCount="145">
   <si>
     <t>Name</t>
   </si>
@@ -454,6 +454,15 @@
   </si>
   <si>
     <t>https://www.allekabels.nl/knoopcel-batterij/1067/1296899/knoopcel-batterij.html?gclid=Cj0KCQiAnY_jBRDdARIsAIEqpJ2rkIKRUuv-_eBs5IBFhdc-4L-u2Y0OKBGr-Ovh1yVKXDImQ0JHVIcaAuZCEALw_wcB</t>
+  </si>
+  <si>
+    <t>D1 D2</t>
+  </si>
+  <si>
+    <t>Fast / Ultrafast Diode, 100 V, 1 A, Single, 1 V, 50 ns, 30 A</t>
+  </si>
+  <si>
+    <t>https://nl.farnell.com/webapp/wcs/stores/servlet/ProductDisplay?urlRequestType=Base&amp;catalogId=10001&amp;langId=31&amp;storeId=10168&amp;partNumber=2675010</t>
   </si>
 </sst>
 </file>
@@ -565,15 +574,15 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -855,10 +864,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L59"/>
+  <dimension ref="A1:L60"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
-      <selection activeCell="C62" sqref="C62"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="K27" sqref="K27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -868,7 +877,7 @@
     <col min="3" max="3" width="107.33203125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="7.83203125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="13.83203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.83203125" style="14" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.83203125" style="13" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="9.6640625" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="20.5" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="10.6640625" bestFit="1" customWidth="1"/>
@@ -890,8 +899,8 @@
         <v>113</v>
       </c>
       <c r="B3">
-        <f>SUM(I7:I42)</f>
-        <v>499.48900000000009</v>
+        <f>SUM(I7:I43)</f>
+        <v>501.2940000000001</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.2">
@@ -899,8 +908,8 @@
         <v>114</v>
       </c>
       <c r="B4">
-        <f>SUM(J7:J43)</f>
-        <v>448.64590000000015</v>
+        <f>SUM(J7:J44)</f>
+        <v>449.36790000000013</v>
       </c>
     </row>
     <row r="6" spans="1:11" ht="32" x14ac:dyDescent="0.2">
@@ -916,7 +925,7 @@
       <c r="E6" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="F6" s="15" t="s">
+      <c r="F6" s="14" t="s">
         <v>4</v>
       </c>
       <c r="G6" s="1" t="s">
@@ -1254,11 +1263,11 @@
       <c r="E16" t="s">
         <v>52</v>
       </c>
-      <c r="F16" s="12" t="s">
+      <c r="F16" s="15" t="s">
         <v>108</v>
       </c>
-      <c r="G16" s="12"/>
-      <c r="H16" s="12"/>
+      <c r="G16" s="15"/>
+      <c r="H16" s="15"/>
       <c r="I16" s="11">
         <v>50</v>
       </c>
@@ -1282,9 +1291,9 @@
       <c r="E17" t="s">
         <v>52</v>
       </c>
-      <c r="F17" s="12"/>
-      <c r="G17" s="12"/>
-      <c r="H17" s="12"/>
+      <c r="F17" s="15"/>
+      <c r="G17" s="15"/>
+      <c r="H17" s="15"/>
       <c r="I17" s="11">
         <v>50</v>
       </c>
@@ -1308,9 +1317,9 @@
       <c r="E18" t="s">
         <v>52</v>
       </c>
-      <c r="F18" s="12"/>
-      <c r="G18" s="12"/>
-      <c r="H18" s="12"/>
+      <c r="F18" s="15"/>
+      <c r="G18" s="15"/>
+      <c r="H18" s="15"/>
       <c r="I18" s="11">
         <v>200</v>
       </c>
@@ -1353,7 +1362,7 @@
         <v>12</v>
       </c>
       <c r="J21">
-        <f t="shared" ref="J21:J26" si="4">G21*D21</f>
+        <f t="shared" ref="J21:J27" si="4">G21*D21</f>
         <v>1.2</v>
       </c>
       <c r="K21" s="9" t="s">
@@ -1398,7 +1407,7 @@
       <c r="B23" t="s">
         <v>67</v>
       </c>
-      <c r="C23" s="8" t="s">
+      <c r="C23" t="s">
         <v>71</v>
       </c>
       <c r="D23">
@@ -1452,7 +1461,7 @@
         <v>100</v>
       </c>
       <c r="I24">
-        <f t="shared" ref="I24:I26" si="6">H24*G24</f>
+        <f t="shared" ref="I24:I27" si="6">H24*G24</f>
         <v>14.7</v>
       </c>
       <c r="J24">
@@ -1467,7 +1476,7 @@
       <c r="B25" s="8" t="s">
         <v>75</v>
       </c>
-      <c r="C25" s="8" t="s">
+      <c r="C25" t="s">
         <v>76</v>
       </c>
       <c r="D25">
@@ -1501,7 +1510,7 @@
       <c r="B26" t="s">
         <v>77</v>
       </c>
-      <c r="C26" s="8" t="s">
+      <c r="C26" t="s">
         <v>79</v>
       </c>
       <c r="D26">
@@ -1532,54 +1541,54 @@
       </c>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="C27" s="6"/>
-    </row>
-    <row r="28" spans="1:11" ht="25" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
+      <c r="B27" t="s">
+        <v>142</v>
+      </c>
+      <c r="C27" t="s">
+        <v>143</v>
+      </c>
+      <c r="D27">
+        <v>2</v>
+      </c>
+      <c r="E27" t="s">
+        <v>44</v>
+      </c>
+      <c r="F27" s="6">
+        <v>2675010</v>
+      </c>
+      <c r="G27">
+        <v>0.36099999999999999</v>
+      </c>
+      <c r="H27">
+        <v>5</v>
+      </c>
+      <c r="I27">
+        <f t="shared" si="6"/>
+        <v>1.8049999999999999</v>
+      </c>
+      <c r="J27">
+        <f t="shared" si="4"/>
+        <v>0.72199999999999998</v>
+      </c>
+      <c r="K27" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="C28" s="6"/>
+    </row>
+    <row r="29" spans="1:11" ht="25" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
         <v>80</v>
       </c>
-      <c r="C28" s="5"/>
-    </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="B29" t="s">
-        <v>81</v>
-      </c>
-      <c r="C29" t="s">
-        <v>63</v>
-      </c>
-      <c r="D29">
-        <v>1</v>
-      </c>
-      <c r="E29" t="s">
-        <v>61</v>
-      </c>
-      <c r="F29" s="3">
-        <v>2827901</v>
-      </c>
-      <c r="G29">
-        <v>0.71299999999999997</v>
-      </c>
-      <c r="H29">
-        <v>10</v>
-      </c>
-      <c r="I29">
-        <f t="shared" ref="I29:I30" si="7">H29*G29</f>
-        <v>7.13</v>
-      </c>
-      <c r="J29">
-        <f t="shared" ref="J29:J34" si="8">G29*D29</f>
-        <v>0.71299999999999997</v>
-      </c>
-      <c r="K29" s="9" t="s">
-        <v>64</v>
-      </c>
+      <c r="C29" s="5"/>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B30" t="s">
-        <v>65</v>
+        <v>81</v>
       </c>
       <c r="C30" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="D30">
         <v>1</v>
@@ -1588,356 +1597,356 @@
         <v>61</v>
       </c>
       <c r="F30" s="3">
-        <v>2827905</v>
+        <v>2827901</v>
       </c>
       <c r="G30">
-        <v>1.2</v>
+        <v>0.71299999999999997</v>
       </c>
       <c r="H30">
         <v>10</v>
       </c>
       <c r="I30">
+        <f t="shared" ref="I30:I31" si="7">H30*G30</f>
+        <v>7.13</v>
+      </c>
+      <c r="J30">
+        <f t="shared" ref="J30:J35" si="8">G30*D30</f>
+        <v>0.71299999999999997</v>
+      </c>
+      <c r="K30" s="9" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="B31" t="s">
+        <v>65</v>
+      </c>
+      <c r="C31" t="s">
+        <v>60</v>
+      </c>
+      <c r="D31">
+        <v>1</v>
+      </c>
+      <c r="E31" t="s">
+        <v>61</v>
+      </c>
+      <c r="F31" s="3">
+        <v>2827905</v>
+      </c>
+      <c r="G31">
+        <v>1.2</v>
+      </c>
+      <c r="H31">
+        <v>10</v>
+      </c>
+      <c r="I31">
         <f t="shared" si="7"/>
         <v>12</v>
       </c>
-      <c r="J30">
+      <c r="J31">
         <f t="shared" si="8"/>
         <v>1.2</v>
       </c>
-      <c r="K30" s="9" t="s">
+      <c r="K31" s="9" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="B31" t="s">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="B32" t="s">
         <v>82</v>
       </c>
-      <c r="C31" t="s">
+      <c r="C32" t="s">
         <v>127</v>
       </c>
-      <c r="D31">
+      <c r="D32">
         <v>2</v>
       </c>
-      <c r="E31" t="s">
+      <c r="E32" t="s">
         <v>61</v>
       </c>
-      <c r="F31" s="3">
+      <c r="F32" s="3">
         <v>2076274</v>
       </c>
-      <c r="G31">
+      <c r="G32">
         <v>0.72099999999999997</v>
       </c>
-      <c r="H31">
+      <c r="H32">
         <v>5</v>
       </c>
-      <c r="I31">
-        <f t="shared" ref="I31:I35" si="9">H31*G31</f>
+      <c r="I32">
+        <f t="shared" ref="I32:I36" si="9">H32*G32</f>
         <v>3.605</v>
       </c>
-      <c r="J31">
+      <c r="J32">
         <f t="shared" si="8"/>
         <v>1.4419999999999999</v>
       </c>
-      <c r="K31" s="9" t="s">
+      <c r="K32" s="9" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="B32" t="s">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="B33" t="s">
         <v>83</v>
       </c>
-      <c r="C32" t="s">
+      <c r="C33" t="s">
         <v>79</v>
       </c>
-      <c r="D32">
+      <c r="D33">
         <v>4</v>
       </c>
-      <c r="E32" t="s">
+      <c r="E33" t="s">
         <v>44</v>
       </c>
-      <c r="F32" s="3">
+      <c r="F33" s="3">
         <v>9240640</v>
       </c>
-      <c r="G32">
+      <c r="G33">
         <v>6.0999999999999999E-2</v>
       </c>
-      <c r="H32">
+      <c r="H33">
         <v>10</v>
       </c>
-      <c r="I32">
+      <c r="I33">
         <f t="shared" si="9"/>
         <v>0.61</v>
       </c>
-      <c r="J32">
+      <c r="J33">
         <f t="shared" si="8"/>
         <v>0.24399999999999999</v>
       </c>
-      <c r="K32" t="s">
+      <c r="K33" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="B33" t="s">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="B34" t="s">
         <v>84</v>
       </c>
-      <c r="C33" t="s">
+      <c r="C34" t="s">
         <v>87</v>
       </c>
-      <c r="D33">
-        <v>1</v>
-      </c>
-      <c r="E33" t="s">
+      <c r="D34">
+        <v>1</v>
+      </c>
+      <c r="E34" t="s">
         <v>44</v>
       </c>
-      <c r="F33" s="3">
+      <c r="F34" s="3">
         <v>9240926</v>
       </c>
-      <c r="G33">
+      <c r="G34">
         <v>6.9900000000000004E-2</v>
       </c>
-      <c r="H33">
+      <c r="H34">
         <v>10</v>
       </c>
-      <c r="I33">
+      <c r="I34">
         <f t="shared" si="9"/>
         <v>0.69900000000000007</v>
       </c>
-      <c r="J33">
+      <c r="J34">
         <f t="shared" si="8"/>
         <v>6.9900000000000004E-2</v>
       </c>
-      <c r="K33" t="s">
+      <c r="K34" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="B34" t="s">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="B35" t="s">
         <v>85</v>
       </c>
-      <c r="C34" t="s">
+      <c r="C35" t="s">
         <v>89</v>
       </c>
-      <c r="D34">
-        <v>1</v>
-      </c>
-      <c r="E34" t="s">
+      <c r="D35">
+        <v>1</v>
+      </c>
+      <c r="E35" t="s">
         <v>44</v>
       </c>
-      <c r="F34" s="3">
+      <c r="F35" s="3">
         <v>2429364</v>
       </c>
-      <c r="G34">
+      <c r="G35">
         <v>0.29899999999999999</v>
       </c>
-      <c r="H34">
+      <c r="H35">
         <v>5</v>
       </c>
-      <c r="I34">
+      <c r="I35">
         <f t="shared" si="9"/>
         <v>1.4949999999999999</v>
       </c>
-      <c r="J34">
+      <c r="J35">
         <f t="shared" si="8"/>
         <v>0.29899999999999999</v>
       </c>
-      <c r="K34" t="s">
+      <c r="K35" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="B35" t="s">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="B36" t="s">
         <v>112</v>
       </c>
-      <c r="C35" t="s">
+      <c r="C36" t="s">
         <v>109</v>
       </c>
-      <c r="D35">
-        <v>1</v>
-      </c>
-      <c r="E35" t="s">
+      <c r="D36">
+        <v>1</v>
+      </c>
+      <c r="E36" t="s">
         <v>110</v>
       </c>
-      <c r="F35" s="3">
+      <c r="F36" s="3">
         <v>10707</v>
       </c>
-      <c r="G35">
+      <c r="G36">
         <f>1.95/10</f>
         <v>0.19500000000000001</v>
       </c>
-      <c r="H35">
+      <c r="H36">
         <v>10</v>
       </c>
-      <c r="I35">
+      <c r="I36">
         <f t="shared" si="9"/>
         <v>1.9500000000000002</v>
       </c>
-      <c r="J35">
-        <f t="shared" ref="J35" si="10">G35*D35</f>
+      <c r="J36">
+        <f t="shared" ref="J36" si="10">G36*D36</f>
         <v>0.19500000000000001</v>
       </c>
-      <c r="K35" t="s">
+      <c r="K36" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="37" spans="1:11" ht="25" x14ac:dyDescent="0.25">
-      <c r="A37" t="s">
+    <row r="38" spans="1:11" ht="25" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
         <v>90</v>
       </c>
-      <c r="C37" s="5"/>
-    </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="B38" t="s">
-        <v>91</v>
-      </c>
-      <c r="C38" t="s">
-        <v>95</v>
-      </c>
-      <c r="D38">
-        <v>1</v>
-      </c>
-      <c r="E38" t="s">
-        <v>44</v>
-      </c>
-      <c r="F38" s="3">
-        <v>1109731</v>
-      </c>
-      <c r="G38">
-        <v>0.78500000000000003</v>
-      </c>
-      <c r="H38">
-        <v>10</v>
-      </c>
-      <c r="I38">
-        <f t="shared" ref="I38:I39" si="11">H38*G38</f>
-        <v>7.8500000000000005</v>
-      </c>
-      <c r="J38">
-        <f t="shared" ref="J38" si="12">G38*D38</f>
-        <v>0.78500000000000003</v>
-      </c>
-      <c r="K38" t="s">
-        <v>94</v>
-      </c>
+      <c r="C38" s="5"/>
     </row>
     <row r="39" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B39" t="s">
-        <v>92</v>
-      </c>
-      <c r="C39" s="8" t="s">
-        <v>71</v>
+        <v>91</v>
+      </c>
+      <c r="C39" t="s">
+        <v>95</v>
       </c>
       <c r="D39">
         <v>1</v>
       </c>
       <c r="E39" t="s">
-        <v>34</v>
-      </c>
-      <c r="F39" s="3" t="s">
-        <v>70</v>
+        <v>44</v>
+      </c>
+      <c r="F39" s="3">
+        <v>1109731</v>
       </c>
       <c r="G39">
-        <f>1.5/H39</f>
-        <v>0.15</v>
+        <v>0.78500000000000003</v>
       </c>
       <c r="H39">
         <v>10</v>
       </c>
       <c r="I39">
+        <f t="shared" ref="I39:I40" si="11">H39*G39</f>
+        <v>7.8500000000000005</v>
+      </c>
+      <c r="J39">
+        <f t="shared" ref="J39" si="12">G39*D39</f>
+        <v>0.78500000000000003</v>
+      </c>
+      <c r="K39" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="B40" t="s">
+        <v>92</v>
+      </c>
+      <c r="C40" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="D40">
+        <v>1</v>
+      </c>
+      <c r="E40" t="s">
+        <v>34</v>
+      </c>
+      <c r="F40" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="G40">
+        <f>1.5/H40</f>
+        <v>0.15</v>
+      </c>
+      <c r="H40">
+        <v>10</v>
+      </c>
+      <c r="I40">
         <f t="shared" si="11"/>
         <v>1.5</v>
       </c>
-      <c r="J39">
-        <f>G39*D39</f>
+      <c r="J40">
+        <f>G40*D40</f>
         <v>0.15</v>
       </c>
-      <c r="K39" t="s">
+      <c r="K40" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="40" spans="1:11" ht="25" x14ac:dyDescent="0.25">
-      <c r="C40" s="5"/>
-      <c r="F40" s="3"/>
-    </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A41" t="s">
+    <row r="41" spans="1:11" ht="25" x14ac:dyDescent="0.25">
+      <c r="C41" s="5"/>
+      <c r="F41" s="3"/>
+    </row>
+    <row r="42" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A42" t="s">
         <v>93</v>
       </c>
-      <c r="F41" s="3"/>
-    </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="B42" t="s">
-        <v>96</v>
-      </c>
-      <c r="C42" s="8" t="s">
-        <v>71</v>
-      </c>
-      <c r="D42" s="10">
-        <v>2</v>
-      </c>
-      <c r="E42" s="10" t="s">
-        <v>34</v>
-      </c>
-      <c r="F42" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="G42">
-        <v>0.15</v>
-      </c>
-      <c r="H42" s="10">
-        <v>10</v>
-      </c>
-      <c r="I42">
-        <f>H42*G42</f>
-        <v>1.5</v>
-      </c>
-      <c r="J42">
-        <f t="shared" ref="J42" si="13">G42*D42</f>
-        <v>0.3</v>
-      </c>
-      <c r="K42" s="10" t="s">
-        <v>69</v>
-      </c>
+      <c r="F42" s="3"/>
     </row>
     <row r="43" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B43" t="s">
-        <v>65</v>
+        <v>96</v>
       </c>
       <c r="C43" s="8" t="s">
-        <v>103</v>
-      </c>
-      <c r="D43">
+        <v>71</v>
+      </c>
+      <c r="D43" s="10">
         <v>2</v>
       </c>
-      <c r="E43" t="s">
-        <v>44</v>
-      </c>
-      <c r="F43" s="3">
-        <v>1593464</v>
+      <c r="E43" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="F43" s="3" t="s">
+        <v>70</v>
       </c>
       <c r="G43">
-        <v>0.221</v>
-      </c>
-      <c r="H43">
-        <v>5</v>
+        <v>0.15</v>
+      </c>
+      <c r="H43" s="10">
+        <v>10</v>
       </c>
       <c r="I43">
         <f>H43*G43</f>
-        <v>1.105</v>
+        <v>1.5</v>
       </c>
       <c r="J43">
-        <f t="shared" ref="J43" si="14">G43*D43</f>
-        <v>0.442</v>
-      </c>
-      <c r="K43" t="s">
-        <v>102</v>
+        <f t="shared" ref="J43" si="13">G43*D43</f>
+        <v>0.3</v>
+      </c>
+      <c r="K43" s="10" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="44" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B44" t="s">
-        <v>97</v>
+        <v>65</v>
       </c>
       <c r="C44" s="8" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="D44">
         <v>2</v>
@@ -1946,32 +1955,32 @@
         <v>44</v>
       </c>
       <c r="F44" s="3">
-        <v>1692540</v>
+        <v>1593464</v>
       </c>
       <c r="G44">
-        <v>8.4699999999999998E-2</v>
+        <v>0.221</v>
       </c>
       <c r="H44">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="I44">
         <f>H44*G44</f>
-        <v>0.84699999999999998</v>
+        <v>1.105</v>
       </c>
       <c r="J44">
-        <f t="shared" ref="J44" si="15">G44*D44</f>
-        <v>0.1694</v>
+        <f t="shared" ref="J44" si="14">G44*D44</f>
+        <v>0.442</v>
       </c>
       <c r="K44" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
     <row r="45" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B45" t="s">
-        <v>85</v>
-      </c>
-      <c r="C45" t="s">
-        <v>89</v>
+        <v>97</v>
+      </c>
+      <c r="C45" s="8" t="s">
+        <v>105</v>
       </c>
       <c r="D45">
         <v>2</v>
@@ -1980,32 +1989,32 @@
         <v>44</v>
       </c>
       <c r="F45" s="3">
-        <v>2429364</v>
+        <v>1692540</v>
       </c>
       <c r="G45">
-        <v>0.29899999999999999</v>
+        <v>8.4699999999999998E-2</v>
       </c>
       <c r="H45">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="I45">
-        <f t="shared" ref="I45:I46" si="16">H45*G45</f>
-        <v>1.4949999999999999</v>
+        <f>H45*G45</f>
+        <v>0.84699999999999998</v>
       </c>
       <c r="J45">
-        <f>G45*D45</f>
-        <v>0.59799999999999998</v>
+        <f t="shared" ref="J45" si="15">G45*D45</f>
+        <v>0.1694</v>
       </c>
       <c r="K45" t="s">
-        <v>88</v>
+        <v>104</v>
       </c>
     </row>
     <row r="46" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B46" t="s">
-        <v>98</v>
-      </c>
-      <c r="C46" s="8" t="s">
-        <v>107</v>
+        <v>85</v>
+      </c>
+      <c r="C46" t="s">
+        <v>89</v>
       </c>
       <c r="D46">
         <v>2</v>
@@ -2014,287 +2023,287 @@
         <v>44</v>
       </c>
       <c r="F46" s="3">
-        <v>1740706</v>
+        <v>2429364</v>
       </c>
       <c r="G46">
-        <v>0.69799999999999995</v>
+        <v>0.29899999999999999</v>
       </c>
       <c r="H46">
         <v>5</v>
       </c>
       <c r="I46">
+        <f t="shared" ref="I46:I47" si="16">H46*G46</f>
+        <v>1.4949999999999999</v>
+      </c>
+      <c r="J46">
+        <f>G46*D46</f>
+        <v>0.59799999999999998</v>
+      </c>
+      <c r="K46" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="47" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="B47" t="s">
+        <v>98</v>
+      </c>
+      <c r="C47" s="8" t="s">
+        <v>107</v>
+      </c>
+      <c r="D47">
+        <v>2</v>
+      </c>
+      <c r="E47" t="s">
+        <v>44</v>
+      </c>
+      <c r="F47" s="3">
+        <v>1740706</v>
+      </c>
+      <c r="G47">
+        <v>0.69799999999999995</v>
+      </c>
+      <c r="H47">
+        <v>5</v>
+      </c>
+      <c r="I47">
         <f t="shared" si="16"/>
         <v>3.4899999999999998</v>
       </c>
-      <c r="J46">
-        <f>G46*D46</f>
+      <c r="J47">
+        <f>G47*D47</f>
         <v>1.3959999999999999</v>
       </c>
-      <c r="K46" t="s">
+      <c r="K47" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="48" spans="1:11" ht="25" x14ac:dyDescent="0.25">
-      <c r="A48" t="s">
+    <row r="49" spans="1:12" ht="25" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
         <v>99</v>
       </c>
-      <c r="C48" s="5"/>
-    </row>
-    <row r="49" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="B49" t="s">
-        <v>92</v>
-      </c>
-      <c r="C49" s="8" t="s">
-        <v>71</v>
-      </c>
-      <c r="D49">
-        <v>1</v>
-      </c>
-      <c r="E49" t="s">
-        <v>34</v>
-      </c>
-      <c r="F49" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="G49">
-        <f>1.5/H49</f>
-        <v>0.15</v>
-      </c>
-      <c r="H49">
-        <v>10</v>
-      </c>
-      <c r="I49">
-        <f t="shared" ref="I49:I51" si="17">H49*G49</f>
-        <v>1.5</v>
-      </c>
-      <c r="J49">
-        <f>G49*D49</f>
-        <v>0.15</v>
-      </c>
-      <c r="K49" t="s">
-        <v>69</v>
-      </c>
+      <c r="C49" s="5"/>
     </row>
     <row r="50" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B50" t="s">
-        <v>100</v>
-      </c>
-      <c r="C50" t="s">
-        <v>63</v>
+        <v>92</v>
+      </c>
+      <c r="C50" s="8" t="s">
+        <v>71</v>
       </c>
       <c r="D50">
         <v>1</v>
       </c>
       <c r="E50" t="s">
-        <v>61</v>
-      </c>
-      <c r="F50" s="3">
-        <v>2827901</v>
+        <v>34</v>
+      </c>
+      <c r="F50" s="3" t="s">
+        <v>70</v>
       </c>
       <c r="G50">
-        <v>0.71299999999999997</v>
+        <f>1.5/H50</f>
+        <v>0.15</v>
       </c>
       <c r="H50">
         <v>10</v>
       </c>
       <c r="I50">
+        <f t="shared" ref="I50:I52" si="17">H50*G50</f>
+        <v>1.5</v>
+      </c>
+      <c r="J50">
+        <f>G50*D50</f>
+        <v>0.15</v>
+      </c>
+      <c r="K50" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="51" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="B51" t="s">
+        <v>100</v>
+      </c>
+      <c r="C51" t="s">
+        <v>63</v>
+      </c>
+      <c r="D51">
+        <v>1</v>
+      </c>
+      <c r="E51" t="s">
+        <v>61</v>
+      </c>
+      <c r="F51" s="3">
+        <v>2827901</v>
+      </c>
+      <c r="G51">
+        <v>0.71299999999999997</v>
+      </c>
+      <c r="H51">
+        <v>10</v>
+      </c>
+      <c r="I51">
         <f t="shared" si="17"/>
         <v>7.13</v>
       </c>
-      <c r="J50">
-        <f>G50*D50</f>
+      <c r="J51">
+        <f>G51*D51</f>
         <v>0.71299999999999997</v>
       </c>
-      <c r="K50" s="9" t="s">
+      <c r="K51" s="9" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="51" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="B51" t="s">
+    <row r="52" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="B52" t="s">
         <v>101</v>
       </c>
-      <c r="C51" t="s">
+      <c r="C52" t="s">
         <v>60</v>
       </c>
-      <c r="D51">
-        <v>1</v>
-      </c>
-      <c r="E51" t="s">
+      <c r="D52">
+        <v>1</v>
+      </c>
+      <c r="E52" t="s">
         <v>61</v>
       </c>
-      <c r="F51" s="3">
+      <c r="F52" s="3">
         <v>2827905</v>
       </c>
-      <c r="G51">
+      <c r="G52">
         <v>1.2</v>
       </c>
-      <c r="H51">
+      <c r="H52">
         <v>10</v>
       </c>
-      <c r="I51">
+      <c r="I52">
         <f t="shared" si="17"/>
         <v>12</v>
       </c>
-      <c r="J51">
-        <f>G51*D51</f>
+      <c r="J52">
+        <f>G52*D52</f>
         <v>1.2</v>
       </c>
-      <c r="K51" s="9" t="s">
+      <c r="K52" s="9" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="52" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="F52" s="3"/>
-    </row>
     <row r="53" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A53" t="s">
+      <c r="F53" s="3"/>
+    </row>
+    <row r="54" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A54" t="s">
         <v>116</v>
-      </c>
-    </row>
-    <row r="54" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="B54" t="s">
-        <v>117</v>
-      </c>
-      <c r="C54" t="s">
-        <v>118</v>
-      </c>
-      <c r="D54">
-        <v>1</v>
-      </c>
-      <c r="E54" t="s">
-        <v>12</v>
-      </c>
-      <c r="F54" s="3" t="s">
-        <v>120</v>
-      </c>
-      <c r="G54">
-        <v>1.5</v>
-      </c>
-      <c r="H54">
-        <v>1</v>
-      </c>
-      <c r="I54">
-        <f t="shared" ref="I54" si="18">H54*G54</f>
-        <v>1.5</v>
-      </c>
-      <c r="J54">
-        <f t="shared" ref="J54" si="19">G54*D54</f>
-        <v>1.5</v>
-      </c>
-      <c r="K54" t="s">
-        <v>119</v>
       </c>
     </row>
     <row r="55" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B55" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="C55" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="D55">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E55" t="s">
-        <v>34</v>
+        <v>12</v>
       </c>
       <c r="F55" s="3" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="G55">
-        <f>3.5/H55</f>
-        <v>0.7</v>
+        <v>1.5</v>
       </c>
       <c r="H55">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="I55">
-        <f t="shared" ref="I55:I56" si="20">H55*G55</f>
-        <v>3.5</v>
+        <f t="shared" ref="I55" si="18">H55*G55</f>
+        <v>1.5</v>
       </c>
       <c r="J55">
-        <f t="shared" ref="J55:J56" si="21">G55*D55</f>
-        <v>2.8</v>
+        <f t="shared" ref="J55" si="19">G55*D55</f>
+        <v>1.5</v>
       </c>
       <c r="K55" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
     </row>
     <row r="56" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B56" t="s">
+        <v>122</v>
+      </c>
+      <c r="C56" t="s">
+        <v>121</v>
+      </c>
+      <c r="D56">
+        <v>4</v>
+      </c>
+      <c r="E56" t="s">
+        <v>34</v>
+      </c>
+      <c r="F56" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="G56">
+        <f>3.5/H56</f>
+        <v>0.7</v>
+      </c>
+      <c r="H56">
+        <v>5</v>
+      </c>
+      <c r="I56">
+        <f t="shared" ref="I56:I57" si="20">H56*G56</f>
+        <v>3.5</v>
+      </c>
+      <c r="J56">
+        <f t="shared" ref="J56:J57" si="21">G56*D56</f>
+        <v>2.8</v>
+      </c>
+      <c r="K56" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="57" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="B57" t="s">
         <v>128</v>
       </c>
-      <c r="C56" t="s">
+      <c r="C57" t="s">
         <v>132</v>
       </c>
-      <c r="D56" s="13">
-        <v>1</v>
-      </c>
-      <c r="E56" s="13" t="s">
+      <c r="D57" s="12">
+        <v>1</v>
+      </c>
+      <c r="E57" s="12" t="s">
         <v>130</v>
       </c>
-      <c r="F56" s="3">
+      <c r="F57" s="3">
         <v>11234</v>
       </c>
-      <c r="G56" s="13">
+      <c r="G57" s="12">
         <v>6</v>
       </c>
-      <c r="H56" s="13">
-        <v>1</v>
-      </c>
-      <c r="I56">
+      <c r="H57" s="12">
+        <v>1</v>
+      </c>
+      <c r="I57">
         <f t="shared" si="20"/>
         <v>6</v>
       </c>
-      <c r="J56">
+      <c r="J57">
         <f t="shared" si="21"/>
         <v>6</v>
       </c>
-      <c r="K56" s="9" t="s">
+      <c r="K57" s="9" t="s">
         <v>131</v>
       </c>
-      <c r="L56" s="13"/>
-    </row>
-    <row r="57" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="B57" t="s">
-        <v>133</v>
-      </c>
-      <c r="C57" s="10" t="s">
-        <v>134</v>
-      </c>
-      <c r="D57">
-        <v>1</v>
-      </c>
-      <c r="E57" t="s">
-        <v>25</v>
-      </c>
-      <c r="F57" s="3">
-        <v>924</v>
-      </c>
-      <c r="G57">
-        <v>2.5</v>
-      </c>
-      <c r="H57">
-        <v>1</v>
-      </c>
-      <c r="I57">
-        <f t="shared" ref="I57:I59" si="22">H57*G57</f>
-        <v>2.5</v>
-      </c>
-      <c r="J57">
-        <f t="shared" ref="J57:J59" si="23">G57*D57</f>
-        <v>2.5</v>
-      </c>
-      <c r="K57" t="s">
-        <v>138</v>
-      </c>
+      <c r="L57" s="12"/>
     </row>
     <row r="58" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B58" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="C58" s="10" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="D58">
         <v>1</v>
@@ -2303,58 +2312,92 @@
         <v>25</v>
       </c>
       <c r="F58" s="3">
+        <v>924</v>
+      </c>
+      <c r="G58">
+        <v>2.5</v>
+      </c>
+      <c r="H58">
+        <v>1</v>
+      </c>
+      <c r="I58">
+        <f t="shared" ref="I58:I60" si="22">H58*G58</f>
+        <v>2.5</v>
+      </c>
+      <c r="J58">
+        <f t="shared" ref="J58:J60" si="23">G58*D58</f>
+        <v>2.5</v>
+      </c>
+      <c r="K58" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="59" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="B59" t="s">
+        <v>135</v>
+      </c>
+      <c r="C59" s="10" t="s">
+        <v>136</v>
+      </c>
+      <c r="D59">
+        <v>1</v>
+      </c>
+      <c r="E59" t="s">
+        <v>25</v>
+      </c>
+      <c r="F59" s="3">
         <v>1750</v>
       </c>
-      <c r="G58">
+      <c r="G59">
         <v>7.5</v>
       </c>
-      <c r="H58">
-        <v>1</v>
-      </c>
-      <c r="I58">
+      <c r="H59">
+        <v>1</v>
+      </c>
+      <c r="I59">
         <f t="shared" si="22"/>
         <v>7.5</v>
       </c>
-      <c r="J58">
+      <c r="J59">
         <f t="shared" si="23"/>
         <v>7.5</v>
       </c>
-      <c r="K58" t="s">
+      <c r="K59" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="59" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="B59" t="s">
+    <row r="60" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="B60" t="s">
         <v>129</v>
       </c>
-      <c r="C59" s="10" t="s">
+      <c r="C60" s="10" t="s">
         <v>139</v>
       </c>
-      <c r="D59">
-        <v>1</v>
-      </c>
-      <c r="E59" t="s">
+      <c r="D60">
+        <v>1</v>
+      </c>
+      <c r="E60" t="s">
         <v>140</v>
       </c>
-      <c r="F59" s="3">
+      <c r="F60" s="3">
         <v>1296899</v>
       </c>
-      <c r="G59">
+      <c r="G60">
         <f>1.9/5</f>
         <v>0.38</v>
       </c>
-      <c r="H59">
+      <c r="H60">
         <v>5</v>
       </c>
-      <c r="I59">
+      <c r="I60">
         <f t="shared" si="22"/>
         <v>1.9</v>
       </c>
-      <c r="J59">
+      <c r="J60">
         <f t="shared" si="23"/>
         <v>0.38</v>
       </c>
-      <c r="K59" t="s">
+      <c r="K60" t="s">
         <v>141</v>
       </c>
     </row>
@@ -2365,7 +2408,7 @@
   <hyperlinks>
     <hyperlink ref="K7" r:id="rId1"/>
     <hyperlink ref="K14" r:id="rId2"/>
-    <hyperlink ref="K56" r:id="rId3"/>
+    <hyperlink ref="K57" r:id="rId3"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>

--- a/MUV Kit/Hardware/BOM_sensors_kit.xlsx
+++ b/MUV Kit/Hardware/BOM_sensors_kit.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16240" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16200" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -866,8 +866,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L60"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="K27" sqref="K27"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="C23" sqref="C23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/MUV Kit/Hardware/BOM_sensors_kit.xlsx
+++ b/MUV Kit/Hardware/BOM_sensors_kit.xlsx
@@ -866,7 +866,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L60"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="C23" sqref="C23"/>
     </sheetView>
   </sheetViews>

--- a/MUV Kit/Hardware/BOM_sensors_kit.xlsx
+++ b/MUV Kit/Hardware/BOM_sensors_kit.xlsx
@@ -312,9 +312,6 @@
     <t>Gas pcb</t>
   </si>
   <si>
-    <t>https://nl.farnell.com/harwin/m22-7130642/socket-vertical-1row-6way/dp/1109731</t>
-  </si>
-  <si>
     <t>M22-7130642 - Board-To-Board Connector, Vertical, 2 mm, 6 Contacts, Receptacle, M22 Series, Through Hole, 1 Rows</t>
   </si>
   <si>
@@ -463,6 +460,9 @@
   </si>
   <si>
     <t>https://nl.farnell.com/webapp/wcs/stores/servlet/ProductDisplay?urlRequestType=Base&amp;catalogId=10001&amp;langId=31&amp;storeId=10168&amp;partNumber=2675010</t>
+  </si>
+  <si>
+    <t>https://nl.farnell.com/wurth-elektronik/61300611821/connector-rcpt-6pos-1row-2-54mm/dp/2827893</t>
   </si>
 </sst>
 </file>
@@ -867,7 +867,7 @@
   <dimension ref="A1:L60"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C23" sqref="C23"/>
+      <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -886,30 +886,30 @@
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.2">
       <c r="C1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.2">
       <c r="C2" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B3">
         <f>SUM(I7:I43)</f>
-        <v>501.2940000000001</v>
+        <v>496.34400000000005</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B4">
         <f>SUM(J7:J44)</f>
-        <v>449.36790000000013</v>
+        <v>448.87290000000013</v>
       </c>
     </row>
     <row r="6" spans="1:11" ht="32" x14ac:dyDescent="0.2">
@@ -1008,7 +1008,7 @@
         <f t="shared" ref="J8:J15" si="0">G8*D8</f>
         <v>10.5</v>
       </c>
-      <c r="K8" t="s">
+      <c r="K8" s="9" t="s">
         <v>15</v>
       </c>
     </row>
@@ -1042,7 +1042,7 @@
         <f t="shared" si="0"/>
         <v>3.5</v>
       </c>
-      <c r="K9" t="s">
+      <c r="K9" s="9" t="s">
         <v>22</v>
       </c>
     </row>
@@ -1076,7 +1076,7 @@
         <f t="shared" si="0"/>
         <v>4.5</v>
       </c>
-      <c r="K10" t="s">
+      <c r="K10" s="9" t="s">
         <v>27</v>
       </c>
     </row>
@@ -1110,7 +1110,7 @@
         <f t="shared" si="0"/>
         <v>35.9</v>
       </c>
-      <c r="K11" t="s">
+      <c r="K11" s="9" t="s">
         <v>28</v>
       </c>
     </row>
@@ -1144,7 +1144,7 @@
         <f t="shared" si="0"/>
         <v>23.95</v>
       </c>
-      <c r="K12" t="s">
+      <c r="K12" s="9" t="s">
         <v>31</v>
       </c>
     </row>
@@ -1178,7 +1178,7 @@
         <f t="shared" si="0"/>
         <v>14.9</v>
       </c>
-      <c r="K13" t="s">
+      <c r="K13" s="9" t="s">
         <v>36</v>
       </c>
     </row>
@@ -1246,7 +1246,7 @@
         <f t="shared" si="0"/>
         <v>25</v>
       </c>
-      <c r="K15" t="s">
+      <c r="K15" s="9" t="s">
         <v>48</v>
       </c>
     </row>
@@ -1264,7 +1264,7 @@
         <v>52</v>
       </c>
       <c r="F16" s="15" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="G16" s="15"/>
       <c r="H16" s="15"/>
@@ -1274,7 +1274,7 @@
       <c r="J16">
         <v>50</v>
       </c>
-      <c r="K16" t="s">
+      <c r="K16" s="9" t="s">
         <v>51</v>
       </c>
     </row>
@@ -1300,7 +1300,7 @@
       <c r="J17">
         <v>50</v>
       </c>
-      <c r="K17" t="s">
+      <c r="K17" s="9" t="s">
         <v>55</v>
       </c>
     </row>
@@ -1326,7 +1326,7 @@
       <c r="J18">
         <v>200</v>
       </c>
-      <c r="K18" t="s">
+      <c r="K18" s="9" t="s">
         <v>58</v>
       </c>
     </row>
@@ -1434,7 +1434,7 @@
         <f t="shared" si="4"/>
         <v>0.6</v>
       </c>
-      <c r="K23" t="s">
+      <c r="K23" s="9" t="s">
         <v>69</v>
       </c>
     </row>
@@ -1468,7 +1468,7 @@
         <f t="shared" si="4"/>
         <v>0.14699999999999999</v>
       </c>
-      <c r="K24" t="s">
+      <c r="K24" s="9" t="s">
         <v>73</v>
       </c>
     </row>
@@ -1502,7 +1502,7 @@
         <f t="shared" si="4"/>
         <v>0.72</v>
       </c>
-      <c r="K25" t="s">
+      <c r="K25" s="9" t="s">
         <v>74</v>
       </c>
     </row>
@@ -1536,16 +1536,16 @@
         <f t="shared" si="4"/>
         <v>0.24399999999999999</v>
       </c>
-      <c r="K26" t="s">
+      <c r="K26" s="9" t="s">
         <v>78</v>
       </c>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B27" t="s">
+        <v>141</v>
+      </c>
+      <c r="C27" t="s">
         <v>142</v>
-      </c>
-      <c r="C27" t="s">
-        <v>143</v>
       </c>
       <c r="D27">
         <v>2</v>
@@ -1570,8 +1570,8 @@
         <f t="shared" si="4"/>
         <v>0.72199999999999998</v>
       </c>
-      <c r="K27" t="s">
-        <v>144</v>
+      <c r="K27" s="9" t="s">
+        <v>143</v>
       </c>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.2">
@@ -1656,7 +1656,7 @@
         <v>82</v>
       </c>
       <c r="C32" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D32">
         <v>2</v>
@@ -1682,7 +1682,7 @@
         <v>1.4419999999999999</v>
       </c>
       <c r="K32" s="9" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.2">
@@ -1789,16 +1789,16 @@
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B36" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C36" t="s">
+        <v>108</v>
+      </c>
+      <c r="D36">
+        <v>1</v>
+      </c>
+      <c r="E36" t="s">
         <v>109</v>
-      </c>
-      <c r="D36">
-        <v>1</v>
-      </c>
-      <c r="E36" t="s">
-        <v>110</v>
       </c>
       <c r="F36" s="3">
         <v>10707</v>
@@ -1819,7 +1819,7 @@
         <v>0.19500000000000001</v>
       </c>
       <c r="K36" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="38" spans="1:11" ht="25" x14ac:dyDescent="0.25">
@@ -1833,7 +1833,7 @@
         <v>91</v>
       </c>
       <c r="C39" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D39">
         <v>1</v>
@@ -1841,25 +1841,25 @@
       <c r="E39" t="s">
         <v>44</v>
       </c>
-      <c r="F39" s="3">
-        <v>1109731</v>
+      <c r="F39" s="6">
+        <v>61300611821</v>
       </c>
       <c r="G39">
-        <v>0.78500000000000003</v>
+        <v>0.28999999999999998</v>
       </c>
       <c r="H39">
         <v>10</v>
       </c>
       <c r="I39">
         <f t="shared" ref="I39:I40" si="11">H39*G39</f>
-        <v>7.8500000000000005</v>
+        <v>2.9</v>
       </c>
       <c r="J39">
         <f t="shared" ref="J39" si="12">G39*D39</f>
-        <v>0.78500000000000003</v>
+        <v>0.28999999999999998</v>
       </c>
       <c r="K39" t="s">
-        <v>94</v>
+        <v>144</v>
       </c>
     </row>
     <row r="40" spans="1:11" x14ac:dyDescent="0.2">
@@ -1909,7 +1909,7 @@
     </row>
     <row r="43" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B43" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C43" s="8" t="s">
         <v>71</v>
@@ -1946,7 +1946,7 @@
         <v>65</v>
       </c>
       <c r="C44" s="8" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D44">
         <v>2</v>
@@ -1972,15 +1972,15 @@
         <v>0.442</v>
       </c>
       <c r="K44" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="45" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B45" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C45" s="8" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D45">
         <v>2</v>
@@ -2006,7 +2006,7 @@
         <v>0.1694</v>
       </c>
       <c r="K45" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="46" spans="1:11" x14ac:dyDescent="0.2">
@@ -2045,10 +2045,10 @@
     </row>
     <row r="47" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B47" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C47" s="8" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D47">
         <v>2</v>
@@ -2074,12 +2074,12 @@
         <v>1.3959999999999999</v>
       </c>
       <c r="K47" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="49" spans="1:12" ht="25" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C49" s="5"/>
     </row>
@@ -2120,7 +2120,7 @@
     </row>
     <row r="51" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B51" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C51" t="s">
         <v>63</v>
@@ -2154,7 +2154,7 @@
     </row>
     <row r="52" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B52" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C52" t="s">
         <v>60</v>
@@ -2191,15 +2191,15 @@
     </row>
     <row r="54" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="55" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B55" t="s">
+        <v>116</v>
+      </c>
+      <c r="C55" t="s">
         <v>117</v>
-      </c>
-      <c r="C55" t="s">
-        <v>118</v>
       </c>
       <c r="D55">
         <v>1</v>
@@ -2208,7 +2208,7 @@
         <v>12</v>
       </c>
       <c r="F55" s="3" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="G55">
         <v>1.5</v>
@@ -2225,15 +2225,15 @@
         <v>1.5</v>
       </c>
       <c r="K55" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="56" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B56" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C56" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D56">
         <v>4</v>
@@ -2242,7 +2242,7 @@
         <v>34</v>
       </c>
       <c r="F56" s="3" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="G56">
         <f>3.5/H56</f>
@@ -2260,21 +2260,21 @@
         <v>2.8</v>
       </c>
       <c r="K56" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="57" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B57" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C57" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D57" s="12">
         <v>1</v>
       </c>
       <c r="E57" s="12" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="F57" s="3">
         <v>11234</v>
@@ -2294,16 +2294,16 @@
         <v>6</v>
       </c>
       <c r="K57" s="9" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="L57" s="12"/>
     </row>
     <row r="58" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B58" t="s">
+        <v>132</v>
+      </c>
+      <c r="C58" s="10" t="s">
         <v>133</v>
-      </c>
-      <c r="C58" s="10" t="s">
-        <v>134</v>
       </c>
       <c r="D58">
         <v>1</v>
@@ -2329,15 +2329,15 @@
         <v>2.5</v>
       </c>
       <c r="K58" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="59" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B59" t="s">
+        <v>134</v>
+      </c>
+      <c r="C59" s="10" t="s">
         <v>135</v>
-      </c>
-      <c r="C59" s="10" t="s">
-        <v>136</v>
       </c>
       <c r="D59">
         <v>1</v>
@@ -2363,21 +2363,21 @@
         <v>7.5</v>
       </c>
       <c r="K59" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="60" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B60" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C60" s="10" t="s">
+        <v>138</v>
+      </c>
+      <c r="D60">
+        <v>1</v>
+      </c>
+      <c r="E60" t="s">
         <v>139</v>
-      </c>
-      <c r="D60">
-        <v>1</v>
-      </c>
-      <c r="E60" t="s">
-        <v>140</v>
       </c>
       <c r="F60" s="3">
         <v>1296899</v>
@@ -2398,7 +2398,7 @@
         <v>0.38</v>
       </c>
       <c r="K60" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
   </sheetData>
@@ -2409,6 +2409,21 @@
     <hyperlink ref="K7" r:id="rId1"/>
     <hyperlink ref="K14" r:id="rId2"/>
     <hyperlink ref="K57" r:id="rId3"/>
+    <hyperlink ref="K8" r:id="rId4"/>
+    <hyperlink ref="K9" r:id="rId5"/>
+    <hyperlink ref="K10" r:id="rId6"/>
+    <hyperlink ref="K11" r:id="rId7"/>
+    <hyperlink ref="K12" r:id="rId8"/>
+    <hyperlink ref="K13" r:id="rId9"/>
+    <hyperlink ref="K15" r:id="rId10"/>
+    <hyperlink ref="K16" r:id="rId11"/>
+    <hyperlink ref="K17" r:id="rId12"/>
+    <hyperlink ref="K18" r:id="rId13"/>
+    <hyperlink ref="K23" r:id="rId14"/>
+    <hyperlink ref="K24" r:id="rId15"/>
+    <hyperlink ref="K25" r:id="rId16"/>
+    <hyperlink ref="K26" r:id="rId17"/>
+    <hyperlink ref="K27" r:id="rId18"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>

--- a/MUV Kit/Hardware/BOM_sensors_kit.xlsx
+++ b/MUV Kit/Hardware/BOM_sensors_kit.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16200" tabRatio="500"/>
+    <workbookView xWindow="-660" yWindow="800" windowWidth="28800" windowHeight="16200" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -312,9 +312,6 @@
     <t>Gas pcb</t>
   </si>
   <si>
-    <t>M22-7130642 - Board-To-Board Connector, Vertical, 2 mm, 6 Contacts, Receptacle, M22 Series, Through Hole, 1 Rows</t>
-  </si>
-  <si>
     <t>J2</t>
   </si>
   <si>
@@ -463,6 +460,9 @@
   </si>
   <si>
     <t>https://nl.farnell.com/wurth-elektronik/61300611821/connector-rcpt-6pos-1row-2-54mm/dp/2827893</t>
+  </si>
+  <si>
+    <t>61300611821 - Board-To-Board Connector, 2.54 mm, 6 Contacts, Receptacle, WR-PHD Series, Through Hole, 1 Rows</t>
   </si>
 </sst>
 </file>
@@ -866,8 +866,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L60"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C20" sqref="C20"/>
+    <sheetView tabSelected="1" topLeftCell="B23" workbookViewId="0">
+      <selection activeCell="C39" sqref="C39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -886,17 +886,17 @@
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.2">
       <c r="C1" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.2">
       <c r="C2" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B3">
         <f>SUM(I7:I43)</f>
@@ -905,7 +905,7 @@
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B4">
         <f>SUM(J7:J44)</f>
@@ -1264,7 +1264,7 @@
         <v>52</v>
       </c>
       <c r="F16" s="15" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="G16" s="15"/>
       <c r="H16" s="15"/>
@@ -1542,10 +1542,10 @@
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B27" t="s">
+        <v>140</v>
+      </c>
+      <c r="C27" t="s">
         <v>141</v>
-      </c>
-      <c r="C27" t="s">
-        <v>142</v>
       </c>
       <c r="D27">
         <v>2</v>
@@ -1571,7 +1571,7 @@
         <v>0.72199999999999998</v>
       </c>
       <c r="K27" s="9" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.2">
@@ -1656,7 +1656,7 @@
         <v>82</v>
       </c>
       <c r="C32" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D32">
         <v>2</v>
@@ -1682,7 +1682,7 @@
         <v>1.4419999999999999</v>
       </c>
       <c r="K32" s="9" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.2">
@@ -1789,16 +1789,16 @@
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B36" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C36" t="s">
+        <v>107</v>
+      </c>
+      <c r="D36">
+        <v>1</v>
+      </c>
+      <c r="E36" t="s">
         <v>108</v>
-      </c>
-      <c r="D36">
-        <v>1</v>
-      </c>
-      <c r="E36" t="s">
-        <v>109</v>
       </c>
       <c r="F36" s="3">
         <v>10707</v>
@@ -1819,21 +1819,21 @@
         <v>0.19500000000000001</v>
       </c>
       <c r="K36" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="38" spans="1:11" ht="25" x14ac:dyDescent="0.25">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>90</v>
       </c>
-      <c r="C38" s="5"/>
+      <c r="C38" s="6"/>
     </row>
     <row r="39" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B39" t="s">
         <v>91</v>
       </c>
       <c r="C39" t="s">
-        <v>94</v>
+        <v>144</v>
       </c>
       <c r="D39">
         <v>1</v>
@@ -1842,7 +1842,7 @@
         <v>44</v>
       </c>
       <c r="F39" s="6">
-        <v>61300611821</v>
+        <v>2827893</v>
       </c>
       <c r="G39">
         <v>0.28999999999999998</v>
@@ -1858,8 +1858,8 @@
         <f t="shared" ref="J39" si="12">G39*D39</f>
         <v>0.28999999999999998</v>
       </c>
-      <c r="K39" t="s">
-        <v>144</v>
+      <c r="K39" s="9" t="s">
+        <v>143</v>
       </c>
     </row>
     <row r="40" spans="1:11" x14ac:dyDescent="0.2">
@@ -1909,7 +1909,7 @@
     </row>
     <row r="43" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B43" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C43" s="8" t="s">
         <v>71</v>
@@ -1946,7 +1946,7 @@
         <v>65</v>
       </c>
       <c r="C44" s="8" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D44">
         <v>2</v>
@@ -1972,15 +1972,15 @@
         <v>0.442</v>
       </c>
       <c r="K44" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="45" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B45" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C45" s="8" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D45">
         <v>2</v>
@@ -2006,7 +2006,7 @@
         <v>0.1694</v>
       </c>
       <c r="K45" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="46" spans="1:11" x14ac:dyDescent="0.2">
@@ -2045,10 +2045,10 @@
     </row>
     <row r="47" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B47" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C47" s="8" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D47">
         <v>2</v>
@@ -2074,12 +2074,12 @@
         <v>1.3959999999999999</v>
       </c>
       <c r="K47" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="49" spans="1:12" ht="25" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C49" s="5"/>
     </row>
@@ -2120,7 +2120,7 @@
     </row>
     <row r="51" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B51" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C51" t="s">
         <v>63</v>
@@ -2154,7 +2154,7 @@
     </row>
     <row r="52" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B52" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C52" t="s">
         <v>60</v>
@@ -2191,15 +2191,15 @@
     </row>
     <row r="54" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="55" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B55" t="s">
+        <v>115</v>
+      </c>
+      <c r="C55" t="s">
         <v>116</v>
-      </c>
-      <c r="C55" t="s">
-        <v>117</v>
       </c>
       <c r="D55">
         <v>1</v>
@@ -2208,7 +2208,7 @@
         <v>12</v>
       </c>
       <c r="F55" s="3" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="G55">
         <v>1.5</v>
@@ -2225,15 +2225,15 @@
         <v>1.5</v>
       </c>
       <c r="K55" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="56" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B56" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C56" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D56">
         <v>4</v>
@@ -2242,7 +2242,7 @@
         <v>34</v>
       </c>
       <c r="F56" s="3" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="G56">
         <f>3.5/H56</f>
@@ -2260,21 +2260,21 @@
         <v>2.8</v>
       </c>
       <c r="K56" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="57" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B57" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C57" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D57" s="12">
         <v>1</v>
       </c>
       <c r="E57" s="12" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="F57" s="3">
         <v>11234</v>
@@ -2294,16 +2294,16 @@
         <v>6</v>
       </c>
       <c r="K57" s="9" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="L57" s="12"/>
     </row>
     <row r="58" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B58" t="s">
+        <v>131</v>
+      </c>
+      <c r="C58" s="10" t="s">
         <v>132</v>
-      </c>
-      <c r="C58" s="10" t="s">
-        <v>133</v>
       </c>
       <c r="D58">
         <v>1</v>
@@ -2329,15 +2329,15 @@
         <v>2.5</v>
       </c>
       <c r="K58" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="59" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B59" t="s">
+        <v>133</v>
+      </c>
+      <c r="C59" s="10" t="s">
         <v>134</v>
-      </c>
-      <c r="C59" s="10" t="s">
-        <v>135</v>
       </c>
       <c r="D59">
         <v>1</v>
@@ -2363,21 +2363,21 @@
         <v>7.5</v>
       </c>
       <c r="K59" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="60" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B60" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C60" s="10" t="s">
+        <v>137</v>
+      </c>
+      <c r="D60">
+        <v>1</v>
+      </c>
+      <c r="E60" t="s">
         <v>138</v>
-      </c>
-      <c r="D60">
-        <v>1</v>
-      </c>
-      <c r="E60" t="s">
-        <v>139</v>
       </c>
       <c r="F60" s="3">
         <v>1296899</v>
@@ -2398,7 +2398,7 @@
         <v>0.38</v>
       </c>
       <c r="K60" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
   </sheetData>
@@ -2424,6 +2424,7 @@
     <hyperlink ref="K25" r:id="rId16"/>
     <hyperlink ref="K26" r:id="rId17"/>
     <hyperlink ref="K27" r:id="rId18"/>
+    <hyperlink ref="K39" r:id="rId19"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
